--- a/data/Plays.xlsx
+++ b/data/Plays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\richjo\FAFL\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\richjo\FAFL\fantasyawards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$65</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="167">
   <si>
     <t>Believer</t>
   </si>
@@ -432,6 +432,102 @@
   </si>
   <si>
     <t>Best Supporting Actor</t>
+  </si>
+  <si>
+    <t>Joshua Bates</t>
+  </si>
+  <si>
+    <t>Incredibles 2</t>
+  </si>
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
+    <t>ANIMATED</t>
+  </si>
+  <si>
+    <t>Hollywood Film Award</t>
+  </si>
+  <si>
+    <t>Animated</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Libatique</t>
+  </si>
+  <si>
+    <t>CINEMATOGRAPHY</t>
+  </si>
+  <si>
+    <t>Cinematography</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Hurwitz</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>Film Composer</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>EDITOR</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Avengers: Infinity War</t>
+  </si>
+  <si>
+    <t>VISUAL EFFECTS</t>
+  </si>
+  <si>
+    <t>Visual Effects</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>COSTUME DESIGN</t>
+  </si>
+  <si>
+    <t>Costume Design</t>
+  </si>
+  <si>
+    <t>Mary Queen of Scots</t>
+  </si>
+  <si>
+    <t>MAKEUP</t>
+  </si>
+  <si>
+    <t>Makeup &amp; Hair Styling</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Beachler</t>
+  </si>
+  <si>
+    <t>PRODUCTION DESIGN</t>
+  </si>
+  <si>
+    <t>Production Design</t>
   </si>
 </sst>
 </file>
@@ -750,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,16 +889,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43398</v>
+        <v>43408</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -811,21 +910,21 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43396</v>
+        <v>43408</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
         <v>111</v>
@@ -837,21 +936,24 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43396</v>
+        <v>43408</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -860,24 +962,21 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43396</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+        <v>43408</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -886,24 +985,24 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43396</v>
+        <v>43408</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -912,24 +1011,21 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43393</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>43408</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -938,24 +1034,24 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43393</v>
+        <v>43408</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -964,24 +1060,21 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43393</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>43403</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -990,24 +1083,21 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43393</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+        <v>43403</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1016,24 +1106,21 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43393</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>43398</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1042,24 +1129,24 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1068,21 +1155,18 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>43396</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>109</v>
@@ -1094,24 +1178,24 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1120,24 +1204,24 @@
         <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1146,21 +1230,24 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43393</v>
       </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1169,30 +1256,30 @@
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>121</v>
@@ -1200,210 +1287,207 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43391</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
+        <v>43393</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1411,16 +1495,16 @@
         <v>43391</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1429,7 +1513,7 @@
         <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,16 +1521,16 @@
         <v>43391</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1455,7 +1539,7 @@
         <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,16 +1547,16 @@
         <v>43391</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1481,7 +1565,7 @@
         <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1489,13 +1573,13 @@
         <v>43391</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>110</v>
@@ -1507,7 +1591,7 @@
         <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,16 +1599,16 @@
         <v>43391</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1533,7 +1617,7 @@
         <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1541,16 +1625,16 @@
         <v>43391</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1567,16 +1651,16 @@
         <v>43391</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1593,16 +1677,16 @@
         <v>43391</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1611,7 +1695,7 @@
         <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,19 +1703,19 @@
         <v>43391</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>118</v>
@@ -1645,13 +1729,13 @@
         <v>43391</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
         <v>110</v>
@@ -1663,7 +1747,7 @@
         <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1671,13 +1755,13 @@
         <v>43391</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
         <v>110</v>
@@ -1689,7 +1773,7 @@
         <v>118</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,13 +1781,13 @@
         <v>43391</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
         <v>110</v>
@@ -1715,7 +1799,7 @@
         <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1723,13 +1807,13 @@
         <v>43391</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
         <v>110</v>
@@ -1741,7 +1825,7 @@
         <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,16 +1833,16 @@
         <v>43391</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1767,7 +1851,7 @@
         <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,13 +1859,13 @@
         <v>43391</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
         <v>110</v>
@@ -1793,7 +1877,7 @@
         <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1801,13 +1885,13 @@
         <v>43391</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
         <v>110</v>
@@ -1819,7 +1903,7 @@
         <v>118</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1827,25 +1911,25 @@
         <v>43391</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
         <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,36 +1937,39 @@
         <v>43391</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43391</v>
       </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
         <v>110</v>
@@ -1894,18 +1981,21 @@
         <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43391</v>
       </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
         <v>110</v>
@@ -1917,21 +2007,24 @@
         <v>118</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43391</v>
       </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1940,18 +2033,21 @@
         <v>118</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43391</v>
       </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
         <v>110</v>
@@ -1963,21 +2059,24 @@
         <v>118</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43391</v>
       </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1986,18 +2085,21 @@
         <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43391</v>
       </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
         <v>110</v>
@@ -2009,21 +2111,24 @@
         <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43391</v>
       </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2032,18 +2137,21 @@
         <v>118</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43391</v>
       </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
         <v>110</v>
@@ -2055,21 +2163,24 @@
         <v>118</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43391</v>
       </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2078,7 +2189,7 @@
         <v>118</v>
       </c>
       <c r="H52" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2086,13 +2197,13 @@
         <v>43391</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -2101,7 +2212,7 @@
         <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2109,10 +2220,10 @@
         <v>43391</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
         <v>110</v>
@@ -2124,24 +2235,21 @@
         <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43391</v>
       </c>
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -2150,37 +2258,255 @@
         <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43391</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43391</v>
+      </c>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B65" t="s">
         <v>93</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C65" t="s">
         <v>94</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D65" t="s">
         <v>103</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E65" t="s">
         <v>112</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H56">
+  <autoFilter ref="A1:H65">
     <sortState ref="A2:H56">
       <sortCondition descending="1" ref="A2:A56"/>
       <sortCondition ref="D2:D56"/>
